--- a/data/metadata/Informe-03-030071-TC-TP.xlsx
+++ b/data/metadata/Informe-03-030071-TC-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>nacionalidad-pais-nombre</t>
   </si>
@@ -55,16 +55,19 @@
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:residencia-comarca-nombre</t>
   </si>
   <si>
     <t>iaest-measure:extranjeros</t>
   </si>
   <si>
-    <t>iaest-dimension:nacionalidad-area-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:edad-grandes-grupos</t>
+    <t>iaest-measure:residencia-provincia-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:nacionalidad-area-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:edad-grandes-grupos</t>
   </si>
   <si>
     <t>medida</t>
@@ -79,19 +82,7 @@
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-nacionalidad-area-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-edad-grandes-grupos.xlsx</t>
   </si>
 </sst>
 </file>
@@ -212,24 +203,24 @@
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -244,7 +235,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -258,13 +249,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -276,13 +267,13 @@
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
@@ -293,13 +284,7 @@
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030071-TC-TP.xlsx
+++ b/data/metadata/Informe-03-030071-TC-TP.xlsx
@@ -11,75 +11,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
-  <si>
-    <t>nacionalidad-pais-nombre</t>
-  </si>
-  <si>
-    <t>residencia-comarca-codigo</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>nacionalidad-area-codigo</t>
-  </si>
-  <si>
-    <t>residencia-provincia-codigo</t>
-  </si>
-  <si>
-    <t>nacionalidad-pais-codigo</t>
-  </si>
-  <si>
-    <t>residencia-comarca-nombre</t>
-  </si>
-  <si>
-    <t>extranjeros</t>
-  </si>
-  <si>
-    <t>residencia-provincia-nombre</t>
-  </si>
-  <si>
-    <t>nacionalidad-area-nombre</t>
-  </si>
-  <si>
-    <t>edad-grandes-grupos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+  <si>
+    <t>Nacionalidad país nombre</t>
+  </si>
+  <si>
+    <t>Edad (grandes grupos)</t>
+  </si>
+  <si>
+    <t>Residencia provincia código</t>
+  </si>
+  <si>
+    <t>Residencia comarca código</t>
+  </si>
+  <si>
+    <t>Residencia comarca nombre</t>
+  </si>
+  <si>
+    <t>Residencia provincia nombre</t>
+  </si>
+  <si>
+    <t>Nacionalidad país código</t>
+  </si>
+  <si>
+    <t>Extranjeros</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Nacionalidad área nombre</t>
+  </si>
+  <si>
+    <t>Nacionalidad área código</t>
   </si>
   <si>
     <t>iaest-measure:nacionalidad-pais-nombre</t>
   </si>
   <si>
+    <t>iaest-measure:edad-grandes-grupos</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
+    <t>iaest-measure:residencia-comarca-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencia-provincia-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:extranjeros</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:residencia-comarca-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:extranjeros</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencia-provincia-nombre</t>
-  </si>
-  <si>
     <t>iaest-measure:nacionalidad-area-nombre</t>
   </si>
   <si>
-    <t>iaest-measure:edad-grandes-grupos</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -188,28 +191,28 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -217,34 +220,34 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -252,39 +255,39 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1" t="s">
-        <v>23</v>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
